--- a/checklist_230315.xlsx
+++ b/checklist_230315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parksewon/Desktop/cording/생활코딩 부수기/conquer_egoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED628C99-D3DD-154F-9413-F12489618836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541893B3-D146-7846-A423-9B738928141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="640" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="221">
   <si>
     <t>수강한 과목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>연결되는 학습</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -712,6 +708,14 @@
   </si>
   <si>
     <t>RTK Query</t>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부한 내용 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -769,7 +773,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1035,13 +1039,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,6 +1158,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,7 +1485,7 @@
   <dimension ref="A1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1468,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>3</v>
+        <v>220</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="I2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19" thickBot="1">
@@ -1491,17 +1530,15 @@
         <v>44451</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>123</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="27">
@@ -1509,7 +1546,7 @@
       </c>
       <c r="J3" s="3">
         <f>COUNTA(H3:H191)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1518,23 +1555,29 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="22"/>
       <c r="G4" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="15"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="21">
+        <v>45016</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="32"/>
       <c r="F5" s="22"/>
       <c r="G5" s="23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -1545,7 +1588,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="22"/>
       <c r="G6" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -1556,7 +1599,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="22"/>
       <c r="G7" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -1567,7 +1610,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="22"/>
       <c r="G8" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8"/>
     </row>
@@ -1578,9 +1621,11 @@
       <c r="E9" s="16"/>
       <c r="F9" s="22"/>
       <c r="G9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="B10" s="15"/>
@@ -1589,7 +1634,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="22"/>
       <c r="G10" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="8"/>
     </row>
@@ -1600,7 +1645,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" s="8"/>
     </row>
@@ -1611,7 +1656,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="22"/>
       <c r="G12" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -1622,7 +1667,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="22"/>
       <c r="G13" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="8"/>
     </row>
@@ -1633,7 +1678,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="22"/>
       <c r="G14" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -1644,7 +1689,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="22"/>
       <c r="G15" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="8"/>
     </row>
@@ -1655,7 +1700,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="22"/>
       <c r="G16" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -1666,7 +1711,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="8"/>
     </row>
@@ -1677,7 +1722,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="22"/>
       <c r="G18" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -1688,7 +1733,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="22"/>
       <c r="G19" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="8"/>
     </row>
@@ -1699,7 +1744,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="22"/>
       <c r="G20" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H20" s="8"/>
     </row>
@@ -1710,7 +1755,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="22"/>
       <c r="G21" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="8"/>
     </row>
@@ -1721,7 +1766,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="22"/>
       <c r="G22" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -1732,7 +1777,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="22"/>
       <c r="G23" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23" s="8"/>
     </row>
@@ -1743,7 +1788,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="22"/>
       <c r="G24" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -1754,7 +1799,7 @@
       <c r="E25" s="16"/>
       <c r="F25" s="22"/>
       <c r="G25" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -1765,7 +1810,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="22"/>
       <c r="G26" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H26" s="8"/>
     </row>
@@ -1776,7 +1821,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="22"/>
       <c r="G27" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -1787,7 +1832,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="22"/>
       <c r="G28" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28" s="8"/>
     </row>
@@ -1798,10 +1843,10 @@
       <c r="E29" s="16"/>
       <c r="F29" s="22"/>
       <c r="G29" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -1811,7 +1856,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="22"/>
       <c r="G30" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -1822,7 +1867,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="22"/>
       <c r="G31" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -1833,7 +1878,7 @@
       <c r="E32" s="16"/>
       <c r="F32" s="22"/>
       <c r="G32" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="8"/>
     </row>
@@ -1844,7 +1889,7 @@
       <c r="E33" s="16"/>
       <c r="F33" s="22"/>
       <c r="G33" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="8"/>
     </row>
@@ -1855,7 +1900,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="22"/>
       <c r="G34" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -1866,7 +1911,7 @@
       <c r="E35" s="16"/>
       <c r="F35" s="22"/>
       <c r="G35" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35" s="8"/>
     </row>
@@ -1877,7 +1922,7 @@
       <c r="E36" s="16"/>
       <c r="F36" s="22"/>
       <c r="G36" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -1888,7 +1933,7 @@
       <c r="E37" s="16"/>
       <c r="F37" s="22"/>
       <c r="G37" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37" s="8"/>
     </row>
@@ -1899,7 +1944,7 @@
       <c r="E38" s="16"/>
       <c r="F38" s="22"/>
       <c r="G38" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="8"/>
     </row>
@@ -1910,7 +1955,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="22"/>
       <c r="G39" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -1921,7 +1966,7 @@
       <c r="E40" s="16"/>
       <c r="F40" s="22"/>
       <c r="G40" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40" s="8"/>
     </row>
@@ -1932,7 +1977,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41" s="8"/>
     </row>
@@ -1943,7 +1988,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H42" s="8"/>
     </row>
@@ -1954,7 +1999,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="22"/>
       <c r="G43" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H43" s="8"/>
     </row>
@@ -1965,7 +2010,7 @@
       <c r="E44" s="16"/>
       <c r="F44" s="22"/>
       <c r="G44" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44" s="8"/>
     </row>
@@ -1976,7 +2021,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="22"/>
       <c r="G45" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" s="8"/>
     </row>
@@ -1987,7 +2032,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="22"/>
       <c r="G46" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" s="8"/>
     </row>
@@ -1998,7 +2043,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="22"/>
       <c r="G47" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H47" s="8"/>
     </row>
@@ -2009,7 +2054,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="22"/>
       <c r="G48" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="8"/>
     </row>
@@ -2020,7 +2065,7 @@
       <c r="E49" s="16"/>
       <c r="F49" s="22"/>
       <c r="G49" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" s="8"/>
     </row>
@@ -2031,7 +2076,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="22"/>
       <c r="G50" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H50" s="8"/>
     </row>
@@ -2042,7 +2087,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="22"/>
       <c r="G51" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -2053,7 +2098,7 @@
       <c r="E52" s="16"/>
       <c r="F52" s="22"/>
       <c r="G52" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H52" s="8"/>
     </row>
@@ -2064,7 +2109,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="22"/>
       <c r="G53" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H53" s="8"/>
     </row>
@@ -2075,7 +2120,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="22"/>
       <c r="G54" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H54" s="8"/>
     </row>
@@ -2086,7 +2131,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="22"/>
       <c r="G55" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H55" s="8"/>
     </row>
@@ -2097,7 +2142,7 @@
       <c r="E56" s="16"/>
       <c r="F56" s="22"/>
       <c r="G56" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H56" s="8"/>
     </row>
@@ -2108,7 +2153,7 @@
       <c r="E57" s="16"/>
       <c r="F57" s="22"/>
       <c r="G57" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -2119,7 +2164,7 @@
       <c r="E58" s="16"/>
       <c r="F58" s="22"/>
       <c r="G58" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H58" s="8"/>
     </row>
@@ -2130,7 +2175,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="22"/>
       <c r="G59" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H59" s="8"/>
     </row>
@@ -2141,7 +2186,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="22"/>
       <c r="G60" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H60" s="8"/>
     </row>
@@ -2152,7 +2197,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="22"/>
       <c r="G61" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61" s="8"/>
     </row>
@@ -2163,7 +2208,7 @@
       <c r="E62" s="16"/>
       <c r="F62" s="22"/>
       <c r="G62" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H62" s="8"/>
     </row>
@@ -2174,7 +2219,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="22"/>
       <c r="G63" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -2185,7 +2230,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="22"/>
       <c r="G64" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H64" s="8"/>
     </row>
@@ -2196,7 +2241,7 @@
       <c r="E65" s="16"/>
       <c r="F65" s="22"/>
       <c r="G65" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -2207,7 +2252,7 @@
       <c r="E66" s="16"/>
       <c r="F66" s="22"/>
       <c r="G66" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H66" s="8"/>
     </row>
@@ -2218,7 +2263,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="22"/>
       <c r="G67" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="8"/>
     </row>
@@ -2229,7 +2274,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="22"/>
       <c r="G68" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" s="8"/>
     </row>
@@ -2240,7 +2285,7 @@
       <c r="E69" s="16"/>
       <c r="F69" s="22"/>
       <c r="G69" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -2251,7 +2296,7 @@
       <c r="E70" s="16"/>
       <c r="F70" s="22"/>
       <c r="G70" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H70" s="8"/>
     </row>
@@ -2262,7 +2307,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="22"/>
       <c r="G71" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -2273,7 +2318,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="22"/>
       <c r="G72" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H72" s="8"/>
     </row>
@@ -2284,7 +2329,7 @@
       <c r="E73" s="16"/>
       <c r="F73" s="22"/>
       <c r="G73" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -2295,7 +2340,7 @@
       <c r="E74" s="16"/>
       <c r="F74" s="22"/>
       <c r="G74" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H74" s="8"/>
     </row>
@@ -2306,7 +2351,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="22"/>
       <c r="G75" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -2317,7 +2362,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="22"/>
       <c r="G76" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H76" s="8"/>
     </row>
@@ -2328,7 +2373,7 @@
       <c r="E77" s="16"/>
       <c r="F77" s="22"/>
       <c r="G77" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -2339,7 +2384,7 @@
       <c r="E78" s="16"/>
       <c r="F78" s="22"/>
       <c r="G78" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H78" s="8"/>
     </row>
@@ -2350,7 +2395,7 @@
       <c r="E79" s="16"/>
       <c r="F79" s="22"/>
       <c r="G79" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H79" s="8"/>
     </row>
@@ -2361,7 +2406,7 @@
       <c r="E80" s="16"/>
       <c r="F80" s="22"/>
       <c r="G80" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H80" s="8"/>
     </row>
@@ -2372,7 +2417,7 @@
       <c r="E81" s="16"/>
       <c r="F81" s="22"/>
       <c r="G81" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H81" s="8"/>
     </row>
@@ -2383,7 +2428,7 @@
       <c r="E82" s="16"/>
       <c r="F82" s="22"/>
       <c r="G82" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H82" s="8"/>
     </row>
@@ -2394,7 +2439,7 @@
       <c r="E83" s="16"/>
       <c r="F83" s="22"/>
       <c r="G83" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H83" s="8"/>
     </row>
@@ -2405,7 +2450,7 @@
       <c r="E84" s="16"/>
       <c r="F84" s="22"/>
       <c r="G84" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H84" s="8"/>
     </row>
@@ -2416,7 +2461,7 @@
       <c r="E85" s="16"/>
       <c r="F85" s="22"/>
       <c r="G85" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H85" s="8"/>
     </row>
@@ -2427,7 +2472,7 @@
       <c r="E86" s="16"/>
       <c r="F86" s="22"/>
       <c r="G86" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H86" s="8"/>
     </row>
@@ -2438,7 +2483,7 @@
       <c r="E87" s="16"/>
       <c r="F87" s="22"/>
       <c r="G87" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H87" s="8"/>
     </row>
@@ -2449,7 +2494,7 @@
       <c r="E88" s="16"/>
       <c r="F88" s="22"/>
       <c r="G88" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H88" s="8"/>
     </row>
@@ -2460,7 +2505,7 @@
       <c r="E89" s="16"/>
       <c r="F89" s="22"/>
       <c r="G89" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H89" s="8"/>
     </row>
@@ -2471,7 +2516,7 @@
       <c r="E90" s="16"/>
       <c r="F90" s="22"/>
       <c r="G90" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H90" s="8"/>
     </row>
@@ -2482,7 +2527,7 @@
       <c r="E91" s="16"/>
       <c r="F91" s="22"/>
       <c r="G91" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H91" s="8"/>
     </row>
@@ -2493,7 +2538,7 @@
       <c r="E92" s="16"/>
       <c r="F92" s="22"/>
       <c r="G92" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H92" s="8"/>
     </row>
@@ -2504,7 +2549,7 @@
       <c r="E93" s="16"/>
       <c r="F93" s="22"/>
       <c r="G93" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H93" s="8"/>
     </row>
@@ -2515,7 +2560,7 @@
       <c r="E94" s="16"/>
       <c r="F94" s="22"/>
       <c r="G94" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H94" s="8"/>
     </row>
@@ -2526,7 +2571,7 @@
       <c r="E95" s="16"/>
       <c r="F95" s="22"/>
       <c r="G95" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H95" s="8"/>
     </row>
@@ -2537,7 +2582,7 @@
       <c r="E96" s="16"/>
       <c r="F96" s="22"/>
       <c r="G96" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="8"/>
     </row>
@@ -2548,7 +2593,7 @@
       <c r="E97" s="16"/>
       <c r="F97" s="22"/>
       <c r="G97" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H97" s="8"/>
     </row>
@@ -2559,7 +2604,7 @@
       <c r="E98" s="16"/>
       <c r="F98" s="22"/>
       <c r="G98" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H98" s="8"/>
     </row>
@@ -2570,7 +2615,7 @@
       <c r="E99" s="16"/>
       <c r="F99" s="22"/>
       <c r="G99" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H99" s="8"/>
     </row>
@@ -2581,7 +2626,7 @@
       <c r="E100" s="16"/>
       <c r="F100" s="22"/>
       <c r="G100" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H100" s="8"/>
     </row>
@@ -2592,7 +2637,7 @@
       <c r="E101" s="16"/>
       <c r="F101" s="22"/>
       <c r="G101" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H101" s="8"/>
     </row>
@@ -2603,7 +2648,7 @@
       <c r="E102" s="16"/>
       <c r="F102" s="22"/>
       <c r="G102" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H102" s="8"/>
     </row>
@@ -2614,7 +2659,7 @@
       <c r="E103" s="16"/>
       <c r="F103" s="22"/>
       <c r="G103" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H103" s="8"/>
     </row>
@@ -2625,7 +2670,7 @@
       <c r="E104" s="16"/>
       <c r="F104" s="22"/>
       <c r="G104" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H104" s="8"/>
     </row>
@@ -2636,7 +2681,7 @@
       <c r="E105" s="16"/>
       <c r="F105" s="22"/>
       <c r="G105" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H105" s="8"/>
     </row>
@@ -2647,7 +2692,7 @@
       <c r="E106" s="16"/>
       <c r="F106" s="22"/>
       <c r="G106" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H106" s="8"/>
     </row>
@@ -2658,7 +2703,7 @@
       <c r="E107" s="16"/>
       <c r="F107" s="22"/>
       <c r="G107" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H107" s="8"/>
     </row>
@@ -2669,7 +2714,7 @@
       <c r="E108" s="16"/>
       <c r="F108" s="22"/>
       <c r="G108" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H108" s="8"/>
     </row>
@@ -2680,7 +2725,7 @@
       <c r="E109" s="16"/>
       <c r="F109" s="22"/>
       <c r="G109" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H109" s="8"/>
     </row>
@@ -2691,7 +2736,7 @@
       <c r="E110" s="16"/>
       <c r="F110" s="22"/>
       <c r="G110" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H110" s="8"/>
     </row>
@@ -2702,7 +2747,7 @@
       <c r="E111" s="16"/>
       <c r="F111" s="22"/>
       <c r="G111" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H111" s="8"/>
     </row>
@@ -2713,7 +2758,7 @@
       <c r="E112" s="16"/>
       <c r="F112" s="22"/>
       <c r="G112" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H112" s="8"/>
     </row>
@@ -2724,7 +2769,7 @@
       <c r="E113" s="16"/>
       <c r="F113" s="22"/>
       <c r="G113" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H113" s="8"/>
     </row>
@@ -2735,7 +2780,7 @@
       <c r="E114" s="16"/>
       <c r="F114" s="22"/>
       <c r="G114" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H114" s="8"/>
     </row>
@@ -2746,7 +2791,7 @@
       <c r="E115" s="16"/>
       <c r="F115" s="22"/>
       <c r="G115" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H115" s="8"/>
     </row>
@@ -2757,7 +2802,7 @@
       <c r="E116" s="16"/>
       <c r="F116" s="22"/>
       <c r="G116" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H116" s="8"/>
     </row>
@@ -2768,7 +2813,7 @@
       <c r="E117" s="16"/>
       <c r="F117" s="22"/>
       <c r="G117" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -2779,7 +2824,7 @@
       <c r="E118" s="16"/>
       <c r="F118" s="22"/>
       <c r="G118" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H118" s="8"/>
     </row>
@@ -2790,7 +2835,7 @@
       <c r="E119" s="16"/>
       <c r="F119" s="22"/>
       <c r="G119" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -2801,7 +2846,7 @@
       <c r="E120" s="16"/>
       <c r="F120" s="22"/>
       <c r="G120" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H120" s="8"/>
     </row>
@@ -2812,7 +2857,7 @@
       <c r="E121" s="16"/>
       <c r="F121" s="22"/>
       <c r="G121" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H121" s="8"/>
     </row>
@@ -2823,7 +2868,7 @@
       <c r="E122" s="16"/>
       <c r="F122" s="22"/>
       <c r="G122" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H122" s="8"/>
     </row>
@@ -2834,7 +2879,7 @@
       <c r="E123" s="16"/>
       <c r="F123" s="22"/>
       <c r="G123" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H123" s="8"/>
     </row>
@@ -2845,7 +2890,7 @@
       <c r="E124" s="16"/>
       <c r="F124" s="22"/>
       <c r="G124" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H124" s="8"/>
     </row>
@@ -2856,7 +2901,7 @@
       <c r="E125" s="16"/>
       <c r="F125" s="22"/>
       <c r="G125" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H125" s="8"/>
     </row>
@@ -2867,10 +2912,10 @@
       <c r="E126" s="16"/>
       <c r="F126" s="22"/>
       <c r="G126" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127" spans="2:8">
@@ -2880,7 +2925,7 @@
       <c r="E127" s="16"/>
       <c r="F127" s="22"/>
       <c r="G127" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -2891,7 +2936,7 @@
       <c r="E128" s="16"/>
       <c r="F128" s="22"/>
       <c r="G128" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H128" s="8"/>
     </row>
@@ -2902,7 +2947,7 @@
       <c r="E129" s="16"/>
       <c r="F129" s="22"/>
       <c r="G129" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -2913,7 +2958,7 @@
       <c r="E130" s="16"/>
       <c r="F130" s="22"/>
       <c r="G130" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H130" s="8"/>
     </row>
@@ -2924,7 +2969,7 @@
       <c r="E131" s="16"/>
       <c r="F131" s="22"/>
       <c r="G131" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H131" s="8"/>
     </row>
@@ -2935,7 +2980,7 @@
       <c r="E132" s="16"/>
       <c r="F132" s="22"/>
       <c r="G132" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H132" s="8"/>
     </row>
@@ -2946,7 +2991,7 @@
       <c r="E133" s="16"/>
       <c r="F133" s="22"/>
       <c r="G133" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -2957,7 +3002,7 @@
       <c r="E134" s="16"/>
       <c r="F134" s="22"/>
       <c r="G134" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H134" s="8"/>
     </row>
@@ -2968,7 +3013,7 @@
       <c r="E135" s="16"/>
       <c r="F135" s="22"/>
       <c r="G135" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -2979,7 +3024,7 @@
       <c r="E136" s="16"/>
       <c r="F136" s="22"/>
       <c r="G136" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H136" s="8"/>
     </row>
@@ -2990,7 +3035,7 @@
       <c r="E137" s="16"/>
       <c r="F137" s="22"/>
       <c r="G137" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -3001,7 +3046,7 @@
       <c r="E138" s="16"/>
       <c r="F138" s="22"/>
       <c r="G138" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H138" s="8"/>
     </row>
@@ -3012,7 +3057,7 @@
       <c r="E139" s="16"/>
       <c r="F139" s="22"/>
       <c r="G139" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -3023,7 +3068,7 @@
       <c r="E140" s="16"/>
       <c r="F140" s="22"/>
       <c r="G140" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H140" s="8"/>
     </row>
@@ -3034,7 +3079,7 @@
       <c r="E141" s="16"/>
       <c r="F141" s="22"/>
       <c r="G141" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H141" s="8"/>
     </row>
@@ -3045,7 +3090,7 @@
       <c r="E142" s="17"/>
       <c r="F142" s="22"/>
       <c r="G142" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H142" s="8"/>
     </row>
@@ -3056,7 +3101,7 @@
       <c r="E143" s="17"/>
       <c r="F143" s="22"/>
       <c r="G143" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H143" s="8"/>
     </row>
@@ -3067,7 +3112,7 @@
       <c r="E144" s="17"/>
       <c r="F144" s="22"/>
       <c r="G144" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H144" s="8"/>
     </row>
@@ -3078,7 +3123,7 @@
       <c r="E145" s="17"/>
       <c r="F145" s="22"/>
       <c r="G145" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H145" s="8"/>
     </row>
@@ -3089,7 +3134,7 @@
       <c r="E146" s="17"/>
       <c r="F146" s="22"/>
       <c r="G146" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H146" s="8"/>
     </row>
@@ -3100,7 +3145,7 @@
       <c r="E147" s="17"/>
       <c r="F147" s="22"/>
       <c r="G147" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H147" s="8"/>
     </row>
@@ -3111,7 +3156,7 @@
       <c r="E148" s="17"/>
       <c r="F148" s="22"/>
       <c r="G148" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H148" s="8"/>
     </row>
@@ -3122,7 +3167,7 @@
       <c r="E149" s="17"/>
       <c r="F149" s="22"/>
       <c r="G149" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H149" s="8"/>
     </row>
@@ -3133,7 +3178,7 @@
       <c r="E150" s="17"/>
       <c r="F150" s="22"/>
       <c r="G150" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H150" s="8"/>
     </row>
@@ -3144,7 +3189,7 @@
       <c r="E151" s="17"/>
       <c r="F151" s="22"/>
       <c r="G151" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H151" s="8"/>
     </row>
@@ -3155,7 +3200,7 @@
       <c r="E152" s="17"/>
       <c r="F152" s="22"/>
       <c r="G152" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H152" s="8"/>
     </row>
@@ -3166,7 +3211,7 @@
       <c r="E153" s="17"/>
       <c r="F153" s="22"/>
       <c r="G153" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H153" s="8"/>
     </row>
@@ -3177,7 +3222,7 @@
       <c r="E154" s="17"/>
       <c r="F154" s="22"/>
       <c r="G154" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H154" s="8"/>
     </row>
@@ -3188,7 +3233,7 @@
       <c r="E155" s="17"/>
       <c r="F155" s="22"/>
       <c r="G155" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H155" s="8"/>
     </row>
@@ -3199,7 +3244,7 @@
       <c r="E156" s="17"/>
       <c r="F156" s="22"/>
       <c r="G156" s="23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H156" s="8"/>
     </row>
@@ -3210,7 +3255,7 @@
       <c r="E157" s="17"/>
       <c r="F157" s="22"/>
       <c r="G157" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H157" s="8"/>
     </row>
@@ -3221,7 +3266,7 @@
       <c r="E158" s="17"/>
       <c r="F158" s="22"/>
       <c r="G158" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H158" s="8"/>
     </row>
@@ -3232,7 +3277,7 @@
       <c r="E159" s="17"/>
       <c r="F159" s="22"/>
       <c r="G159" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H159" s="8"/>
     </row>
@@ -3243,7 +3288,7 @@
       <c r="E160" s="17"/>
       <c r="F160" s="22"/>
       <c r="G160" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H160" s="8"/>
     </row>
@@ -3254,7 +3299,7 @@
       <c r="E161" s="17"/>
       <c r="F161" s="22"/>
       <c r="G161" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H161" s="8"/>
     </row>
@@ -3265,7 +3310,7 @@
       <c r="E162" s="17"/>
       <c r="F162" s="22"/>
       <c r="G162" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H162" s="8"/>
     </row>
@@ -3276,7 +3321,7 @@
       <c r="E163" s="17"/>
       <c r="F163" s="22"/>
       <c r="G163" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H163" s="8"/>
     </row>
@@ -3287,7 +3332,7 @@
       <c r="E164" s="17"/>
       <c r="F164" s="22"/>
       <c r="G164" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H164" s="8"/>
     </row>
@@ -3298,189 +3343,189 @@
       <c r="E165" s="20"/>
       <c r="F165" s="22"/>
       <c r="G165" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H165" s="28"/>
     </row>
     <row r="166" spans="2:8">
       <c r="F166" s="22"/>
       <c r="G166" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H166" s="29"/>
     </row>
     <row r="167" spans="2:8">
       <c r="F167" s="22"/>
       <c r="G167" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H167" s="29"/>
     </row>
     <row r="168" spans="2:8">
       <c r="F168" s="22"/>
       <c r="G168" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H168" s="29"/>
     </row>
     <row r="169" spans="2:8">
       <c r="F169" s="22"/>
       <c r="G169" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H169" s="29"/>
     </row>
     <row r="170" spans="2:8">
       <c r="F170" s="22"/>
       <c r="G170" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H170" s="29"/>
     </row>
     <row r="171" spans="2:8">
       <c r="F171" s="22"/>
       <c r="G171" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H171" s="29"/>
     </row>
     <row r="172" spans="2:8">
       <c r="F172" s="22"/>
       <c r="G172" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H172" s="29"/>
     </row>
     <row r="173" spans="2:8">
       <c r="F173" s="22"/>
       <c r="G173" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H173" s="29"/>
     </row>
     <row r="174" spans="2:8">
       <c r="F174" s="22"/>
       <c r="G174" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H174" s="29"/>
     </row>
     <row r="175" spans="2:8">
       <c r="F175" s="22"/>
       <c r="G175" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H175" s="29"/>
     </row>
     <row r="176" spans="2:8">
       <c r="F176" s="22"/>
       <c r="G176" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H176" s="29"/>
     </row>
     <row r="177" spans="6:8">
       <c r="F177" s="22"/>
       <c r="G177" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H177" s="29"/>
     </row>
     <row r="178" spans="6:8">
       <c r="F178" s="22"/>
       <c r="G178" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H178" s="29"/>
     </row>
     <row r="179" spans="6:8">
       <c r="F179" s="22"/>
       <c r="G179" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H179" s="29"/>
     </row>
     <row r="180" spans="6:8">
       <c r="F180" s="22"/>
       <c r="G180" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H180" s="29"/>
     </row>
     <row r="181" spans="6:8">
       <c r="F181" s="22"/>
       <c r="G181" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H181" s="29"/>
     </row>
     <row r="182" spans="6:8">
       <c r="F182" s="22"/>
       <c r="G182" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H182" s="29"/>
     </row>
     <row r="183" spans="6:8">
       <c r="F183" s="22"/>
       <c r="G183" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H183" s="29"/>
     </row>
     <row r="184" spans="6:8">
       <c r="F184" s="22"/>
       <c r="G184" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H184" s="29"/>
     </row>
     <row r="185" spans="6:8">
       <c r="F185" s="22"/>
       <c r="G185" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H185" s="29"/>
     </row>
     <row r="186" spans="6:8">
       <c r="F186" s="22"/>
       <c r="G186" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H186" s="29"/>
     </row>
     <row r="187" spans="6:8">
       <c r="F187" s="22"/>
       <c r="G187" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H187" s="29"/>
     </row>
     <row r="188" spans="6:8">
       <c r="F188" s="22"/>
       <c r="G188" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H188" s="29"/>
     </row>
     <row r="189" spans="6:8">
       <c r="F189" s="22"/>
       <c r="G189" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H189" s="29"/>
     </row>
     <row r="190" spans="6:8">
       <c r="F190" s="22"/>
       <c r="G190" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H190" s="29"/>
     </row>
     <row r="191" spans="6:8" ht="19" thickBot="1">
       <c r="F191" s="22"/>
       <c r="G191" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H191" s="30"/>
     </row>
@@ -3502,210 +3547,210 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/checklist_230315.xlsx
+++ b/checklist_230315.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parksewon/Desktop/cording/생활코딩 부수기/conquer_egoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541893B3-D146-7846-A423-9B738928141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA251C3F-4631-A547-820D-15B2FAA49C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="640" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
   </bookViews>
@@ -1482,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFCE93B-EEC5-274E-BC18-776E18377526}">
-  <dimension ref="A1:J191"/>
+  <dimension ref="B1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1495,8 +1495,8 @@
     <col min="7" max="7" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19" thickBot="1"/>
-    <row r="2" spans="1:10" ht="40" customHeight="1" thickBot="1">
+    <row r="1" spans="2:10" ht="19" thickBot="1"/>
+    <row r="2" spans="2:10" ht="40" customHeight="1" thickBot="1">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1522,10 +1522,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19" thickBot="1">
-      <c r="A3">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:10" ht="19" thickBot="1">
       <c r="B3" s="12">
         <v>44451</v>
       </c>
@@ -1549,7 +1546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="2:10">
       <c r="B4" s="21">
         <v>44711</v>
       </c>
@@ -1564,7 +1561,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="2:10">
       <c r="B5" s="21">
         <v>45016</v>
       </c>
@@ -1581,7 +1578,7 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="2:10">
       <c r="B6" s="15"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1592,7 +1589,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="2:10">
       <c r="B7" s="15"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -1603,7 +1600,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="2:10">
       <c r="B8" s="15"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1614,7 +1611,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="2:10">
       <c r="B9" s="15"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -1627,7 +1624,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="2:10">
       <c r="B10" s="15"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -1638,7 +1635,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="2:10">
       <c r="B11" s="15"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -1649,7 +1646,7 @@
       </c>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="2:10">
       <c r="B12" s="15"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -1660,7 +1657,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="2:10">
       <c r="B13" s="15"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1671,7 +1668,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="2:10">
       <c r="B14" s="15"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1682,7 +1679,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="2:10">
       <c r="B15" s="15"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1693,7 +1690,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="2:10">
       <c r="B16" s="15"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>

--- a/checklist_230315.xlsx
+++ b/checklist_230315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parksewon/Desktop/cording/생활코딩 부수기/conquer_egoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA251C3F-4631-A547-820D-15B2FAA49C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D074ED95-628E-9A44-911C-D67549242078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="640" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
+    <workbookView xWindow="2480" yWindow="4580" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
   </bookViews>
   <sheets>
     <sheet name="생활코딩" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="222">
   <si>
     <t>수강한 과목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -715,6 +715,10 @@
   </si>
   <si>
     <t>공부한 내용 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file vs database</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1071,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1163,9 +1167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1485,7 +1486,7 @@
   <dimension ref="B1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1568,10 +1569,12 @@
       <c r="C5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="32" t="s">
+        <v>221</v>
+      </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23" t="s">
         <v>7</v>

--- a/checklist_230315.xlsx
+++ b/checklist_230315.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parksewon/Desktop/cording/생활코딩 부수기/conquer_egoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D074ED95-628E-9A44-911C-D67549242078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A8626-B61B-3F44-95FF-F4125DB0F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="4580" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="222">
   <si>
     <t>수강한 과목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1491,7 +1491,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1538,13 +1539,15 @@
       <c r="G3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="I3" s="27">
         <v>189</v>
       </c>
       <c r="J3" s="3">
         <f>COUNTA(H3:H191)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -1582,9 +1585,15 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="15"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="21">
+        <v>45076</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="22"/>
       <c r="G6" s="23" t="s">

--- a/checklist_230315.xlsx
+++ b/checklist_230315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parksewon/Desktop/cording/생활코딩 부수기/conquer_egoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A8626-B61B-3F44-95FF-F4125DB0F94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B4E14C-4F5A-0B49-BCCB-633A5AE338A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="4580" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
+    <workbookView xWindow="15320" yWindow="4700" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
   </bookViews>
   <sheets>
     <sheet name="생활코딩" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="222">
   <si>
     <t>수강한 과목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1486,13 +1486,12 @@
   <dimension ref="B1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1547,7 +1546,7 @@
       </c>
       <c r="J3" s="3">
         <f>COUNTA(H3:H191)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:10">
@@ -1602,9 +1601,15 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="15"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="21">
+        <v>45076</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="16"/>
       <c r="F7" s="22"/>
       <c r="G7" s="23" t="s">
@@ -1733,7 +1738,9 @@
       <c r="G18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="15"/>

--- a/checklist_230315.xlsx
+++ b/checklist_230315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parksewon/Desktop/cording/생활코딩 부수기/conquer_egoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B4E14C-4F5A-0B49-BCCB-633A5AE338A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9BC7D-9F82-724D-B12F-9BCF0422E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="4700" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
+    <workbookView xWindow="8660" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
   </bookViews>
   <sheets>
     <sheet name="생활코딩" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="223">
   <si>
     <t>수강한 과목명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -719,6 +719,10 @@
   </si>
   <si>
     <t>file vs database</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1486,7 +1490,7 @@
   <dimension ref="B1:J191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1618,10 +1622,18 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="15"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="21">
+        <v>45082</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>222</v>
+      </c>
       <c r="F8" s="22"/>
       <c r="G8" s="23" t="s">
         <v>10</v>

--- a/checklist_230315.xlsx
+++ b/checklist_230315.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parksewon/Desktop/cording/생활코딩 부수기/conquer_egoing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9BC7D-9F82-724D-B12F-9BCF0422E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4537B0-72BC-BF46-9489-91A570B8ECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="1500" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
+    <workbookView xWindow="5900" yWindow="14120" windowWidth="28300" windowHeight="17440" xr2:uid="{0EC225BB-710A-ED47-A8BB-084D04CE56FA}"/>
   </bookViews>
   <sheets>
     <sheet name="생활코딩" sheetId="1" r:id="rId1"/>
